--- a/station_power_results_1.xlsx
+++ b/station_power_results_1.xlsx
@@ -10,8 +10,6 @@
     <sheet name="STATION_POWER_0" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="STATION_POWER_1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="STATION_POWER_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="STATION_POWER_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="STATION_POWER_4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5534,5201 +5532,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>burnt</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>trees</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>wet_trees</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>burnt_settle</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>wet_settlement</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>perc_burnt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>perc_settle_burnt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5884</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>335</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5879</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>335</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5872</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>335</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0001702707304614337</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5865</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>335</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0005112474437627812</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5852</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>335</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.001194743130227001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5826</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>335</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.001884529724173377</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>23</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5788</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>335</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.003958010669420065</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>44</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5747</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>335</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.007597996891728544</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>72</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5700</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>335</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.01247401247401247</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>110</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5649</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>335</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0191005382878972</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>149</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5585</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>335</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.02598535054063481</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>196</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5512</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>335</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.03433175687510948</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>246</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5443</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="n">
-        <v>335</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.04322614654717976</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>312</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5361</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>335</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.05496828752642706</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>380</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5281</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>335</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.06706671373102718</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>449</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5205</v>
-      </c>
-      <c r="D17" t="n">
-        <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>335</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.07931460872637343</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>508</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5116</v>
-      </c>
-      <c r="D18" t="n">
-        <v>9</v>
-      </c>
-      <c r="E18" t="n">
-        <v>330</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.09018285105627552</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>581</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5032</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="n">
-        <v>322</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.1033072546230441</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>660</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4940</v>
-      </c>
-      <c r="D20" t="n">
-        <v>14</v>
-      </c>
-      <c r="E20" t="n">
-        <v>319</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.1175632347702173</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.01230769230769231</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>755</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4852</v>
-      </c>
-      <c r="D21" t="n">
-        <v>17</v>
-      </c>
-      <c r="E21" t="n">
-        <v>311</v>
-      </c>
-      <c r="F21" t="n">
-        <v>11</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.1342460881934566</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.03384615384615385</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>824</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4737</v>
-      </c>
-      <c r="D22" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" t="n">
-        <v>307</v>
-      </c>
-      <c r="F22" t="n">
-        <v>13</v>
-      </c>
-      <c r="G22" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.1476437914352267</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.04012345679012345</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>933</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4629</v>
-      </c>
-      <c r="D23" t="n">
-        <v>24</v>
-      </c>
-      <c r="E23" t="n">
-        <v>304</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19</v>
-      </c>
-      <c r="G23" t="n">
-        <v>5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.1670247046186896</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.05792682926829269</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1027</v>
-      </c>
-      <c r="C24" t="n">
-        <v>4510</v>
-      </c>
-      <c r="D24" t="n">
-        <v>27</v>
-      </c>
-      <c r="E24" t="n">
-        <v>298</v>
-      </c>
-      <c r="F24" t="n">
-        <v>22</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.1845794392523364</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.06727828746177369</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1124</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4397</v>
-      </c>
-      <c r="D25" t="n">
-        <v>30</v>
-      </c>
-      <c r="E25" t="n">
-        <v>279</v>
-      </c>
-      <c r="F25" t="n">
-        <v>23</v>
-      </c>
-      <c r="G25" t="n">
-        <v>9</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2024860385516123</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.07395498392282958</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>1230</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4269</v>
-      </c>
-      <c r="D26" t="n">
-        <v>32</v>
-      </c>
-      <c r="E26" t="n">
-        <v>258</v>
-      </c>
-      <c r="F26" t="n">
-        <v>28</v>
-      </c>
-      <c r="G26" t="n">
-        <v>12</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2223829325619237</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.09395973154362416</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1347</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4118</v>
-      </c>
-      <c r="D27" t="n">
-        <v>34</v>
-      </c>
-      <c r="E27" t="n">
-        <v>234</v>
-      </c>
-      <c r="F27" t="n">
-        <v>43</v>
-      </c>
-      <c r="G27" t="n">
-        <v>15</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.2449536279323513</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.1472602739726027</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1458</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3958</v>
-      </c>
-      <c r="D28" t="n">
-        <v>36</v>
-      </c>
-      <c r="E28" t="n">
-        <v>200</v>
-      </c>
-      <c r="F28" t="n">
-        <v>61</v>
-      </c>
-      <c r="G28" t="n">
-        <v>18</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.2674247982391783</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.2186379928315412</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1585</v>
-      </c>
-      <c r="C29" t="n">
-        <v>3791</v>
-      </c>
-      <c r="D29" t="n">
-        <v>38</v>
-      </c>
-      <c r="E29" t="n">
-        <v>173</v>
-      </c>
-      <c r="F29" t="n">
-        <v>82</v>
-      </c>
-      <c r="G29" t="n">
-        <v>21</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.2927595123753232</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.2971014492753623</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1730</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3632</v>
-      </c>
-      <c r="D30" t="n">
-        <v>40</v>
-      </c>
-      <c r="E30" t="n">
-        <v>157</v>
-      </c>
-      <c r="F30" t="n">
-        <v>114</v>
-      </c>
-      <c r="G30" t="n">
-        <v>24</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.320251758607923</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.3864406779661017</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1878</v>
-      </c>
-      <c r="C31" t="n">
-        <v>3477</v>
-      </c>
-      <c r="D31" t="n">
-        <v>45</v>
-      </c>
-      <c r="E31" t="n">
-        <v>146</v>
-      </c>
-      <c r="F31" t="n">
-        <v>138</v>
-      </c>
-      <c r="G31" t="n">
-        <v>25</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.3477777777777778</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.4466019417475728</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2029</v>
-      </c>
-      <c r="C32" t="n">
-        <v>3317</v>
-      </c>
-      <c r="D32" t="n">
-        <v>51</v>
-      </c>
-      <c r="E32" t="n">
-        <v>137</v>
-      </c>
-      <c r="F32" t="n">
-        <v>153</v>
-      </c>
-      <c r="G32" t="n">
-        <v>25</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.3759496016305355</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.4857142857142857</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2178</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3160</v>
-      </c>
-      <c r="D33" t="n">
-        <v>56</v>
-      </c>
-      <c r="E33" t="n">
-        <v>130</v>
-      </c>
-      <c r="F33" t="n">
-        <v>164</v>
-      </c>
-      <c r="G33" t="n">
-        <v>25</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.4037819799777531</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.5141065830721003</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2344</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3019</v>
-      </c>
-      <c r="D34" t="n">
-        <v>61</v>
-      </c>
-      <c r="E34" t="n">
-        <v>129</v>
-      </c>
-      <c r="F34" t="n">
-        <v>173</v>
-      </c>
-      <c r="G34" t="n">
-        <v>25</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.4321533923303835</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.5290519877675841</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2491</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2882</v>
-      </c>
-      <c r="D35" t="n">
-        <v>65</v>
-      </c>
-      <c r="E35" t="n">
-        <v>128</v>
-      </c>
-      <c r="F35" t="n">
-        <v>179</v>
-      </c>
-      <c r="G35" t="n">
-        <v>26</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.4580728208900331</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.5375375375375375</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2637</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2748</v>
-      </c>
-      <c r="D36" t="n">
-        <v>69</v>
-      </c>
-      <c r="E36" t="n">
-        <v>126</v>
-      </c>
-      <c r="F36" t="n">
-        <v>180</v>
-      </c>
-      <c r="G36" t="n">
-        <v>27</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.4834983498349835</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.5405405405405406</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>2770</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2646</v>
-      </c>
-      <c r="D37" t="n">
-        <v>73</v>
-      </c>
-      <c r="E37" t="n">
-        <v>121</v>
-      </c>
-      <c r="F37" t="n">
-        <v>180</v>
-      </c>
-      <c r="G37" t="n">
-        <v>28</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.5046456549462561</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.547112462006079</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2889</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2546</v>
-      </c>
-      <c r="D38" t="n">
-        <v>76</v>
-      </c>
-      <c r="E38" t="n">
-        <v>116</v>
-      </c>
-      <c r="F38" t="n">
-        <v>181</v>
-      </c>
-      <c r="G38" t="n">
-        <v>29</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.5242242787152966</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.5552147239263804</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3019</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2422</v>
-      </c>
-      <c r="D39" t="n">
-        <v>78</v>
-      </c>
-      <c r="E39" t="n">
-        <v>112</v>
-      </c>
-      <c r="F39" t="n">
-        <v>185</v>
-      </c>
-      <c r="G39" t="n">
-        <v>30</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.547019387570212</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.5657492354740061</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3138</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2305</v>
-      </c>
-      <c r="D40" t="n">
-        <v>79</v>
-      </c>
-      <c r="E40" t="n">
-        <v>104</v>
-      </c>
-      <c r="F40" t="n">
-        <v>189</v>
-      </c>
-      <c r="G40" t="n">
-        <v>31</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.5682723650851141</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3240</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2181</v>
-      </c>
-      <c r="D41" t="n">
-        <v>80</v>
-      </c>
-      <c r="E41" t="n">
-        <v>99</v>
-      </c>
-      <c r="F41" t="n">
-        <v>192</v>
-      </c>
-      <c r="G41" t="n">
-        <v>32</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.5889838211234321</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.5944272445820433</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3352</v>
-      </c>
-      <c r="C42" t="n">
-        <v>2034</v>
-      </c>
-      <c r="D42" t="n">
-        <v>81</v>
-      </c>
-      <c r="E42" t="n">
-        <v>99</v>
-      </c>
-      <c r="F42" t="n">
-        <v>198</v>
-      </c>
-      <c r="G42" t="n">
-        <v>33</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.6131333455277117</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3470</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1883</v>
-      </c>
-      <c r="D43" t="n">
-        <v>84</v>
-      </c>
-      <c r="E43" t="n">
-        <v>99</v>
-      </c>
-      <c r="F43" t="n">
-        <v>203</v>
-      </c>
-      <c r="G43" t="n">
-        <v>33</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.6382196064005886</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.6059701492537314</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3607</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1730</v>
-      </c>
-      <c r="D44" t="n">
-        <v>88</v>
-      </c>
-      <c r="E44" t="n">
-        <v>99</v>
-      </c>
-      <c r="F44" t="n">
-        <v>203</v>
-      </c>
-      <c r="G44" t="n">
-        <v>33</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.6648847926267281</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.6059701492537314</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3742</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1585</v>
-      </c>
-      <c r="D45" t="n">
-        <v>91</v>
-      </c>
-      <c r="E45" t="n">
-        <v>96</v>
-      </c>
-      <c r="F45" t="n">
-        <v>203</v>
-      </c>
-      <c r="G45" t="n">
-        <v>33</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.6906607604282022</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.6114457831325302</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3887</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1448</v>
-      </c>
-      <c r="D46" t="n">
-        <v>94</v>
-      </c>
-      <c r="E46" t="n">
-        <v>88</v>
-      </c>
-      <c r="F46" t="n">
-        <v>203</v>
-      </c>
-      <c r="G46" t="n">
-        <v>33</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.7159697918585375</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.6265432098765432</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>4022</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1328</v>
-      </c>
-      <c r="D47" t="n">
-        <v>96</v>
-      </c>
-      <c r="E47" t="n">
-        <v>69</v>
-      </c>
-      <c r="F47" t="n">
-        <v>206</v>
-      </c>
-      <c r="G47" t="n">
-        <v>34</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.7385236871098053</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>4159</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1191</v>
-      </c>
-      <c r="D48" t="n">
-        <v>97</v>
-      </c>
-      <c r="E48" t="n">
-        <v>49</v>
-      </c>
-      <c r="F48" t="n">
-        <v>213</v>
-      </c>
-      <c r="G48" t="n">
-        <v>36</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.7635395630622361</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.714765100671141</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>4304</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1046</v>
-      </c>
-      <c r="D49" t="n">
-        <v>99</v>
-      </c>
-      <c r="E49" t="n">
-        <v>32</v>
-      </c>
-      <c r="F49" t="n">
-        <v>230</v>
-      </c>
-      <c r="G49" t="n">
-        <v>37</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.7898697008625436</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>4439</v>
-      </c>
-      <c r="C50" t="n">
-        <v>901</v>
-      </c>
-      <c r="D50" t="n">
-        <v>102</v>
-      </c>
-      <c r="E50" t="n">
-        <v>18</v>
-      </c>
-      <c r="F50" t="n">
-        <v>249</v>
-      </c>
-      <c r="G50" t="n">
-        <v>37</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.8156927600147005</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.819078947368421</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>4564</v>
-      </c>
-      <c r="C51" t="n">
-        <v>761</v>
-      </c>
-      <c r="D51" t="n">
-        <v>103</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7</v>
-      </c>
-      <c r="F51" t="n">
-        <v>266</v>
-      </c>
-      <c r="G51" t="n">
-        <v>38</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.840825350036846</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.8553054662379421</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>4713</v>
-      </c>
-      <c r="C52" t="n">
-        <v>643</v>
-      </c>
-      <c r="D52" t="n">
-        <v>103</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>278</v>
-      </c>
-      <c r="G52" t="n">
-        <v>40</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.8633449349697747</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.8714733542319749</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>4850</v>
-      </c>
-      <c r="C53" t="n">
-        <v>544</v>
-      </c>
-      <c r="D53" t="n">
-        <v>104</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>287</v>
-      </c>
-      <c r="G53" t="n">
-        <v>41</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.8821389596216807</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>4974</v>
-      </c>
-      <c r="C54" t="n">
-        <v>465</v>
-      </c>
-      <c r="D54" t="n">
-        <v>106</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>293</v>
-      </c>
-      <c r="G54" t="n">
-        <v>41</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.89702434625789</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.8772455089820359</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>5102</v>
-      </c>
-      <c r="C55" t="n">
-        <v>411</v>
-      </c>
-      <c r="D55" t="n">
-        <v>108</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>294</v>
-      </c>
-      <c r="G55" t="n">
-        <v>41</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.9076676747909624</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>5189</v>
-      </c>
-      <c r="C56" t="n">
-        <v>364</v>
-      </c>
-      <c r="D56" t="n">
-        <v>110</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>294</v>
-      </c>
-      <c r="G56" t="n">
-        <v>41</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.9162987815645418</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>5269</v>
-      </c>
-      <c r="C57" t="n">
-        <v>321</v>
-      </c>
-      <c r="D57" t="n">
-        <v>112</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>294</v>
-      </c>
-      <c r="G57" t="n">
-        <v>41</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.9240617327253595</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>5324</v>
-      </c>
-      <c r="C58" t="n">
-        <v>275</v>
-      </c>
-      <c r="D58" t="n">
-        <v>114</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>294</v>
-      </c>
-      <c r="G58" t="n">
-        <v>41</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.9319096796779275</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>5388</v>
-      </c>
-      <c r="C59" t="n">
-        <v>241</v>
-      </c>
-      <c r="D59" t="n">
-        <v>116</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>294</v>
-      </c>
-      <c r="G59" t="n">
-        <v>41</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.9378590078328982</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>5436</v>
-      </c>
-      <c r="C60" t="n">
-        <v>204</v>
-      </c>
-      <c r="D60" t="n">
-        <v>117</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>294</v>
-      </c>
-      <c r="G60" t="n">
-        <v>41</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.9442417926003127</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>5477</v>
-      </c>
-      <c r="C61" t="n">
-        <v>167</v>
-      </c>
-      <c r="D61" t="n">
-        <v>117</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>294</v>
-      </c>
-      <c r="G61" t="n">
-        <v>41</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.9507030029508766</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>5511</v>
-      </c>
-      <c r="C62" t="n">
-        <v>135</v>
-      </c>
-      <c r="D62" t="n">
-        <v>117</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>294</v>
-      </c>
-      <c r="G62" t="n">
-        <v>41</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.9562727745965642</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>5550</v>
-      </c>
-      <c r="C63" t="n">
-        <v>109</v>
-      </c>
-      <c r="D63" t="n">
-        <v>117</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>294</v>
-      </c>
-      <c r="G63" t="n">
-        <v>41</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.9608725761772853</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>5587</v>
-      </c>
-      <c r="C64" t="n">
-        <v>91</v>
-      </c>
-      <c r="D64" t="n">
-        <v>117</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>294</v>
-      </c>
-      <c r="G64" t="n">
-        <v>41</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.964106988783434</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>5625</v>
-      </c>
-      <c r="C65" t="n">
-        <v>68</v>
-      </c>
-      <c r="D65" t="n">
-        <v>117</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>294</v>
-      </c>
-      <c r="G65" t="n">
-        <v>41</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.96815834767642</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>5651</v>
-      </c>
-      <c r="C66" t="n">
-        <v>51</v>
-      </c>
-      <c r="D66" t="n">
-        <v>117</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>294</v>
-      </c>
-      <c r="G66" t="n">
-        <v>41</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.9711290599759409</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>5674</v>
-      </c>
-      <c r="C67" t="n">
-        <v>37</v>
-      </c>
-      <c r="D67" t="n">
-        <v>117</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>294</v>
-      </c>
-      <c r="G67" t="n">
-        <v>41</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.9735758407687028</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>5694</v>
-      </c>
-      <c r="C68" t="n">
-        <v>28</v>
-      </c>
-      <c r="D68" t="n">
-        <v>117</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>294</v>
-      </c>
-      <c r="G68" t="n">
-        <v>41</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.9751669806473712</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>5712</v>
-      </c>
-      <c r="C69" t="n">
-        <v>23</v>
-      </c>
-      <c r="D69" t="n">
-        <v>117</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>294</v>
-      </c>
-      <c r="G69" t="n">
-        <v>41</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.9760765550239234</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>5726</v>
-      </c>
-      <c r="C70" t="n">
-        <v>18</v>
-      </c>
-      <c r="D70" t="n">
-        <v>117</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>294</v>
-      </c>
-      <c r="G70" t="n">
-        <v>41</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.9769663879883979</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>5734</v>
-      </c>
-      <c r="C71" t="n">
-        <v>12</v>
-      </c>
-      <c r="D71" t="n">
-        <v>117</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>294</v>
-      </c>
-      <c r="G71" t="n">
-        <v>41</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.9779976121439536</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>5743</v>
-      </c>
-      <c r="C72" t="n">
-        <v>9</v>
-      </c>
-      <c r="D72" t="n">
-        <v>117</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>294</v>
-      </c>
-      <c r="G72" t="n">
-        <v>41</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.9785312659737604</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>5750</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8</v>
-      </c>
-      <c r="D73" t="n">
-        <v>117</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>294</v>
-      </c>
-      <c r="G73" t="n">
-        <v>41</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.9787234042553191</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>5753</v>
-      </c>
-      <c r="C74" t="n">
-        <v>8</v>
-      </c>
-      <c r="D74" t="n">
-        <v>117</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>294</v>
-      </c>
-      <c r="G74" t="n">
-        <v>41</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.9787342633548826</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>5756</v>
-      </c>
-      <c r="C75" t="n">
-        <v>8</v>
-      </c>
-      <c r="D75" t="n">
-        <v>117</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>294</v>
-      </c>
-      <c r="G75" t="n">
-        <v>41</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.9787451113756164</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>5758</v>
-      </c>
-      <c r="C76" t="n">
-        <v>8</v>
-      </c>
-      <c r="D76" t="n">
-        <v>117</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>294</v>
-      </c>
-      <c r="G76" t="n">
-        <v>41</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.9787523372429032</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.8776119402985074</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>burnt</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>trees</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>wet_trees</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>settlement</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>burnt_settle</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>wet_settlement</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>perc_burnt</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>perc_settle_burnt</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5750</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>354</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5746</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>354</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5737</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>354</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0001742767514813524</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5724</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>354</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0006983240223463687</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5710</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>354</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.001748251748251748</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>19</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5688</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>354</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.003329244787103557</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>29</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5662</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>354</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.00509576524336672</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>45</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5638</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>354</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.007918352982579624</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>66</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5609</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>354</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.01162995594713656</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>90</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5578</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>354</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.01587861679604799</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>116</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5551</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>354</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.0204693841538733</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>140</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5517</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>354</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.02474809969948736</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>173</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5482</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>354</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.03059239610963749</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>211</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5450</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>354</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.03727256668433139</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>245</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5413</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>354</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.04330151997172146</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>275</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5373</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>354</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.04868980169971671</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>310</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5327</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>354</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.05499379102359411</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>344</v>
-      </c>
-      <c r="C19" t="n">
-        <v>5274</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>354</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.06123175507297971</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>382</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5229</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>354</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.06808055605061486</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>427</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5183</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>354</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.07611408199643493</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>476</v>
-      </c>
-      <c r="C22" t="n">
-        <v>5140</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>354</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.08475783475783476</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>515</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5097</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>354</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.09176764076977904</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>551</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5044</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>354</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.09848078641644326</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>606</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4999</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>354</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.1081177520071365</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>648</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4960</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>354</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1155492154065621</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>699</v>
-      </c>
-      <c r="C27" t="n">
-        <v>4910</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>354</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.1246211445890533</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>741</v>
-      </c>
-      <c r="C28" t="n">
-        <v>4867</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>354</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.132132667617689</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>788</v>
-      </c>
-      <c r="C29" t="n">
-        <v>4809</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>354</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.1407897087725567</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>837</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4750</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>354</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.1497852541159628</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>887</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4692</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>354</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.1589320910231141</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>937</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4632</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" t="n">
-        <v>354</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.16816223977028</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>993</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4573</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4</v>
-      </c>
-      <c r="E33" t="n">
-        <v>353</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.1782764811490126</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>1053</v>
-      </c>
-      <c r="C34" t="n">
-        <v>4516</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="n">
-        <v>352</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.1889467073389557</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>1114</v>
-      </c>
-      <c r="C35" t="n">
-        <v>4439</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>346</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.2004318100035984</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>1172</v>
-      </c>
-      <c r="C36" t="n">
-        <v>4368</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>331</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.2113615870153291</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.002994011976047904</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>1234</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4288</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6</v>
-      </c>
-      <c r="E37" t="n">
-        <v>312</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
-      </c>
-      <c r="G37" t="n">
-        <v>2</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.2232272069464544</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.01875</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1307</v>
-      </c>
-      <c r="C38" t="n">
-        <v>4217</v>
-      </c>
-      <c r="D38" t="n">
-        <v>6</v>
-      </c>
-      <c r="E38" t="n">
-        <v>305</v>
-      </c>
-      <c r="F38" t="n">
-        <v>20</v>
-      </c>
-      <c r="G38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.2363471971066908</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.06097560975609756</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>1397</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4143</v>
-      </c>
-      <c r="D39" t="n">
-        <v>7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>304</v>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
-      <c r="G39" t="n">
-        <v>4</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.2518478456823508</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.1098265895953757</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1459</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4087</v>
-      </c>
-      <c r="D40" t="n">
-        <v>9</v>
-      </c>
-      <c r="E40" t="n">
-        <v>304</v>
-      </c>
-      <c r="F40" t="n">
-        <v>44</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.2626462646264626</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.1246458923512748</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1520</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4027</v>
-      </c>
-      <c r="D41" t="n">
-        <v>12</v>
-      </c>
-      <c r="E41" t="n">
-        <v>304</v>
-      </c>
-      <c r="F41" t="n">
-        <v>45</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.2734304731066738</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.1271186440677966</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1582</v>
-      </c>
-      <c r="C42" t="n">
-        <v>3940</v>
-      </c>
-      <c r="D42" t="n">
-        <v>15</v>
-      </c>
-      <c r="E42" t="n">
-        <v>303</v>
-      </c>
-      <c r="F42" t="n">
-        <v>45</v>
-      </c>
-      <c r="G42" t="n">
-        <v>5</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.1274787535410765</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1650</v>
-      </c>
-      <c r="C43" t="n">
-        <v>3857</v>
-      </c>
-      <c r="D43" t="n">
-        <v>18</v>
-      </c>
-      <c r="E43" t="n">
-        <v>300</v>
-      </c>
-      <c r="F43" t="n">
-        <v>45</v>
-      </c>
-      <c r="G43" t="n">
-        <v>5</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.2986425339366516</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.1285714285714286</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1714</v>
-      </c>
-      <c r="C44" t="n">
-        <v>3766</v>
-      </c>
-      <c r="D44" t="n">
-        <v>22</v>
-      </c>
-      <c r="E44" t="n">
-        <v>293</v>
-      </c>
-      <c r="F44" t="n">
-        <v>46</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.3115230825154489</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.1337209302325581</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1789</v>
-      </c>
-      <c r="C45" t="n">
-        <v>3689</v>
-      </c>
-      <c r="D45" t="n">
-        <v>24</v>
-      </c>
-      <c r="E45" t="n">
-        <v>277</v>
-      </c>
-      <c r="F45" t="n">
-        <v>49</v>
-      </c>
-      <c r="G45" t="n">
-        <v>7</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.3251544892766267</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.1471471471471471</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1868</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3612</v>
-      </c>
-      <c r="D46" t="n">
-        <v>26</v>
-      </c>
-      <c r="E46" t="n">
-        <v>267</v>
-      </c>
-      <c r="F46" t="n">
-        <v>54</v>
-      </c>
-      <c r="G46" t="n">
-        <v>9</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.3392662549945514</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.1636363636363636</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1951</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3525</v>
-      </c>
-      <c r="D47" t="n">
-        <v>30</v>
-      </c>
-      <c r="E47" t="n">
-        <v>255</v>
-      </c>
-      <c r="F47" t="n">
-        <v>68</v>
-      </c>
-      <c r="G47" t="n">
-        <v>9</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.3543407192154014</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.2048192771084337</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2029</v>
-      </c>
-      <c r="C48" t="n">
-        <v>3439</v>
-      </c>
-      <c r="D48" t="n">
-        <v>32</v>
-      </c>
-      <c r="E48" t="n">
-        <v>238</v>
-      </c>
-      <c r="F48" t="n">
-        <v>78</v>
-      </c>
-      <c r="G48" t="n">
-        <v>10</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.3689090909090909</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.2392638036809816</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2109</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3357</v>
-      </c>
-      <c r="D49" t="n">
-        <v>34</v>
-      </c>
-      <c r="E49" t="n">
-        <v>228</v>
-      </c>
-      <c r="F49" t="n">
-        <v>89</v>
-      </c>
-      <c r="G49" t="n">
-        <v>11</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.3834545454545454</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0.2713414634146342</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2184</v>
-      </c>
-      <c r="C50" t="n">
-        <v>3271</v>
-      </c>
-      <c r="D50" t="n">
-        <v>35</v>
-      </c>
-      <c r="E50" t="n">
-        <v>227</v>
-      </c>
-      <c r="F50" t="n">
-        <v>103</v>
-      </c>
-      <c r="G50" t="n">
-        <v>13</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.3978142076502732</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0.3002915451895043</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2254</v>
-      </c>
-      <c r="C51" t="n">
-        <v>3167</v>
-      </c>
-      <c r="D51" t="n">
-        <v>37</v>
-      </c>
-      <c r="E51" t="n">
-        <v>227</v>
-      </c>
-      <c r="F51" t="n">
-        <v>112</v>
-      </c>
-      <c r="G51" t="n">
-        <v>14</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.4129717845364602</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.3172804532577904</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2350</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3067</v>
-      </c>
-      <c r="D52" t="n">
-        <v>39</v>
-      </c>
-      <c r="E52" t="n">
-        <v>222</v>
-      </c>
-      <c r="F52" t="n">
-        <v>112</v>
-      </c>
-      <c r="G52" t="n">
-        <v>15</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.4307184750733138</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.3209169054441261</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2439</v>
-      </c>
-      <c r="C53" t="n">
-        <v>2985</v>
-      </c>
-      <c r="D53" t="n">
-        <v>41</v>
-      </c>
-      <c r="E53" t="n">
-        <v>216</v>
-      </c>
-      <c r="F53" t="n">
-        <v>112</v>
-      </c>
-      <c r="G53" t="n">
-        <v>16</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.4462946020128088</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.3255813953488372</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2531</v>
-      </c>
-      <c r="C54" t="n">
-        <v>2885</v>
-      </c>
-      <c r="D54" t="n">
-        <v>43</v>
-      </c>
-      <c r="E54" t="n">
-        <v>206</v>
-      </c>
-      <c r="F54" t="n">
-        <v>116</v>
-      </c>
-      <c r="G54" t="n">
-        <v>17</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.4636380289430299</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0.3421828908554572</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2629</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2791</v>
-      </c>
-      <c r="D55" t="n">
-        <v>45</v>
-      </c>
-      <c r="E55" t="n">
-        <v>195</v>
-      </c>
-      <c r="F55" t="n">
-        <v>121</v>
-      </c>
-      <c r="G55" t="n">
-        <v>18</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.4810612991765782</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.3622754491017964</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2720</v>
-      </c>
-      <c r="C56" t="n">
-        <v>2701</v>
-      </c>
-      <c r="D56" t="n">
-        <v>48</v>
-      </c>
-      <c r="E56" t="n">
-        <v>186</v>
-      </c>
-      <c r="F56" t="n">
-        <v>130</v>
-      </c>
-      <c r="G56" t="n">
-        <v>19</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.497348692631194</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.3880597014925373</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2806</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2609</v>
-      </c>
-      <c r="D57" t="n">
-        <v>52</v>
-      </c>
-      <c r="E57" t="n">
-        <v>182</v>
-      </c>
-      <c r="F57" t="n">
-        <v>140</v>
-      </c>
-      <c r="G57" t="n">
-        <v>19</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.5132613865008231</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.4105571847507332</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2894</v>
-      </c>
-      <c r="C58" t="n">
-        <v>2510</v>
-      </c>
-      <c r="D58" t="n">
-        <v>55</v>
-      </c>
-      <c r="E58" t="n">
-        <v>180</v>
-      </c>
-      <c r="F58" t="n">
-        <v>149</v>
-      </c>
-      <c r="G58" t="n">
-        <v>19</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.5301337241252977</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.4281609195402299</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2987</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2419</v>
-      </c>
-      <c r="D59" t="n">
-        <v>58</v>
-      </c>
-      <c r="E59" t="n">
-        <v>180</v>
-      </c>
-      <c r="F59" t="n">
-        <v>153</v>
-      </c>
-      <c r="G59" t="n">
-        <v>19</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.5466691068814056</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.4346590909090909</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>3086</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2312</v>
-      </c>
-      <c r="D60" t="n">
-        <v>60</v>
-      </c>
-      <c r="E60" t="n">
-        <v>177</v>
-      </c>
-      <c r="F60" t="n">
-        <v>155</v>
-      </c>
-      <c r="G60" t="n">
-        <v>19</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.5654085745694394</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.4415954415954416</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>3182</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2205</v>
-      </c>
-      <c r="D61" t="n">
-        <v>62</v>
-      </c>
-      <c r="E61" t="n">
-        <v>165</v>
-      </c>
-      <c r="F61" t="n">
-        <v>155</v>
-      </c>
-      <c r="G61" t="n">
-        <v>20</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.5839603596990274</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.4558823529411765</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3259</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2092</v>
-      </c>
-      <c r="D62" t="n">
-        <v>64</v>
-      </c>
-      <c r="E62" t="n">
-        <v>155</v>
-      </c>
-      <c r="F62" t="n">
-        <v>157</v>
-      </c>
-      <c r="G62" t="n">
-        <v>21</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.6018467220683287</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.4714714714714714</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3358</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1978</v>
-      </c>
-      <c r="D63" t="n">
-        <v>67</v>
-      </c>
-      <c r="E63" t="n">
-        <v>145</v>
-      </c>
-      <c r="F63" t="n">
-        <v>168</v>
-      </c>
-      <c r="G63" t="n">
-        <v>21</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.6215065704238386</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.5029940119760479</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3465</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1861</v>
-      </c>
-      <c r="D64" t="n">
-        <v>69</v>
-      </c>
-      <c r="E64" t="n">
-        <v>135</v>
-      </c>
-      <c r="F64" t="n">
-        <v>178</v>
-      </c>
-      <c r="G64" t="n">
-        <v>22</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.6422613531047267</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0.5313432835820896</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>3584</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1746</v>
-      </c>
-      <c r="D65" t="n">
-        <v>71</v>
-      </c>
-      <c r="E65" t="n">
-        <v>121</v>
-      </c>
-      <c r="F65" t="n">
-        <v>187</v>
-      </c>
-      <c r="G65" t="n">
-        <v>23</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.663580818366969</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.5649546827794562</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>3694</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1616</v>
-      </c>
-      <c r="D66" t="n">
-        <v>72</v>
-      </c>
-      <c r="E66" t="n">
-        <v>106</v>
-      </c>
-      <c r="F66" t="n">
-        <v>195</v>
-      </c>
-      <c r="G66" t="n">
-        <v>25</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.6863619472315124</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.598159509202454</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3809</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1496</v>
-      </c>
-      <c r="D67" t="n">
-        <v>76</v>
-      </c>
-      <c r="E67" t="n">
-        <v>101</v>
-      </c>
-      <c r="F67" t="n">
-        <v>208</v>
-      </c>
-      <c r="G67" t="n">
-        <v>25</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.7078609923805984</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.6227544910179641</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>3919</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1374</v>
-      </c>
-      <c r="D68" t="n">
-        <v>78</v>
-      </c>
-      <c r="E68" t="n">
-        <v>99</v>
-      </c>
-      <c r="F68" t="n">
-        <v>222</v>
-      </c>
-      <c r="G68" t="n">
-        <v>26</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.7296592813256377</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.6397694524495677</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>4033</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1269</v>
-      </c>
-      <c r="D69" t="n">
-        <v>80</v>
-      </c>
-      <c r="E69" t="n">
-        <v>99</v>
-      </c>
-      <c r="F69" t="n">
-        <v>226</v>
-      </c>
-      <c r="G69" t="n">
-        <v>27</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.7493496841322929</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.6420454545454546</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>4145</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1170</v>
-      </c>
-      <c r="D70" t="n">
-        <v>83</v>
-      </c>
-      <c r="E70" t="n">
-        <v>99</v>
-      </c>
-      <c r="F70" t="n">
-        <v>227</v>
-      </c>
-      <c r="G70" t="n">
-        <v>28</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.7678769914783253</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.6412429378531074</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>4266</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1077</v>
-      </c>
-      <c r="D71" t="n">
-        <v>87</v>
-      </c>
-      <c r="E71" t="n">
-        <v>96</v>
-      </c>
-      <c r="F71" t="n">
-        <v>227</v>
-      </c>
-      <c r="G71" t="n">
-        <v>28</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.7856353591160221</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.6467236467236467</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>4380</v>
-      </c>
-      <c r="C72" t="n">
-        <v>971</v>
-      </c>
-      <c r="D72" t="n">
-        <v>90</v>
-      </c>
-      <c r="E72" t="n">
-        <v>88</v>
-      </c>
-      <c r="F72" t="n">
-        <v>227</v>
-      </c>
-      <c r="G72" t="n">
-        <v>29</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.8049990810512774</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.6598837209302325</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>4482</v>
-      </c>
-      <c r="C73" t="n">
-        <v>884</v>
-      </c>
-      <c r="D73" t="n">
-        <v>94</v>
-      </c>
-      <c r="E73" t="n">
-        <v>74</v>
-      </c>
-      <c r="F73" t="n">
-        <v>229</v>
-      </c>
-      <c r="G73" t="n">
-        <v>29</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.8208791208791208</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.6897590361445783</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>4580</v>
-      </c>
-      <c r="C74" t="n">
-        <v>793</v>
-      </c>
-      <c r="D74" t="n">
-        <v>96</v>
-      </c>
-      <c r="E74" t="n">
-        <v>60</v>
-      </c>
-      <c r="F74" t="n">
-        <v>237</v>
-      </c>
-      <c r="G74" t="n">
-        <v>30</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.8374474309745841</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.7247706422018348</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>4666</v>
-      </c>
-      <c r="C75" t="n">
-        <v>685</v>
-      </c>
-      <c r="D75" t="n">
-        <v>98</v>
-      </c>
-      <c r="E75" t="n">
-        <v>40</v>
-      </c>
-      <c r="F75" t="n">
-        <v>250</v>
-      </c>
-      <c r="G75" t="n">
-        <v>31</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.8563039089741237</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.778816199376947</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>4768</v>
-      </c>
-      <c r="C76" t="n">
-        <v>590</v>
-      </c>
-      <c r="D76" t="n">
-        <v>100</v>
-      </c>
-      <c r="E76" t="n">
-        <v>24</v>
-      </c>
-      <c r="F76" t="n">
-        <v>263</v>
-      </c>
-      <c r="G76" t="n">
-        <v>32</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.8735800659582265</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.8244514106583072</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>4854</v>
-      </c>
-      <c r="C77" t="n">
-        <v>532</v>
-      </c>
-      <c r="D77" t="n">
-        <v>101</v>
-      </c>
-      <c r="E77" t="n">
-        <v>6</v>
-      </c>
-      <c r="F77" t="n">
-        <v>282</v>
-      </c>
-      <c r="G77" t="n">
-        <v>34</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.8846364133406233</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0.8757763975155279</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>4933</v>
-      </c>
-      <c r="C78" t="n">
-        <v>477</v>
-      </c>
-      <c r="D78" t="n">
-        <v>101</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>295</v>
-      </c>
-      <c r="G78" t="n">
-        <v>36</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.8951188532026856</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.8912386706948641</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>5005</v>
-      </c>
-      <c r="C79" t="n">
-        <v>422</v>
-      </c>
-      <c r="D79" t="n">
-        <v>102</v>
-      </c>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>311</v>
-      </c>
-      <c r="G79" t="n">
-        <v>37</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.9052269849882438</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0.8936781609195402</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>5081</v>
-      </c>
-      <c r="C80" t="n">
-        <v>369</v>
-      </c>
-      <c r="D80" t="n">
-        <v>104</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>317</v>
-      </c>
-      <c r="G80" t="n">
-        <v>37</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.9148361541231544</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>5161</v>
-      </c>
-      <c r="C81" t="n">
-        <v>328</v>
-      </c>
-      <c r="D81" t="n">
-        <v>106</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>317</v>
-      </c>
-      <c r="G81" t="n">
-        <v>37</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.9224307417336908</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>5219</v>
-      </c>
-      <c r="C82" t="n">
-        <v>287</v>
-      </c>
-      <c r="D82" t="n">
-        <v>108</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>317</v>
-      </c>
-      <c r="G82" t="n">
-        <v>37</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.9296401852511578</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>5254</v>
-      </c>
-      <c r="C83" t="n">
-        <v>257</v>
-      </c>
-      <c r="D83" t="n">
-        <v>110</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>317</v>
-      </c>
-      <c r="G83" t="n">
-        <v>37</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.9347091264899484</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>5289</v>
-      </c>
-      <c r="C84" t="n">
-        <v>222</v>
-      </c>
-      <c r="D84" t="n">
-        <v>112</v>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>317</v>
-      </c>
-      <c r="G84" t="n">
-        <v>37</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.9406011026142629</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>5331</v>
-      </c>
-      <c r="C85" t="n">
-        <v>187</v>
-      </c>
-      <c r="D85" t="n">
-        <v>113</v>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>317</v>
-      </c>
-      <c r="G85" t="n">
-        <v>37</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.946723494938732</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>5378</v>
-      </c>
-      <c r="C86" t="n">
-        <v>161</v>
-      </c>
-      <c r="D86" t="n">
-        <v>113</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>317</v>
-      </c>
-      <c r="G86" t="n">
-        <v>37</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.9515215852795471</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>5408</v>
-      </c>
-      <c r="C87" t="n">
-        <v>133</v>
-      </c>
-      <c r="D87" t="n">
-        <v>113</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>317</v>
-      </c>
-      <c r="G87" t="n">
-        <v>37</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.9564909798372834</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>5434</v>
-      </c>
-      <c r="C88" t="n">
-        <v>109</v>
-      </c>
-      <c r="D88" t="n">
-        <v>113</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>317</v>
-      </c>
-      <c r="G88" t="n">
-        <v>37</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.9607496463932107</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>5462</v>
-      </c>
-      <c r="C89" t="n">
-        <v>88</v>
-      </c>
-      <c r="D89" t="n">
-        <v>113</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>317</v>
-      </c>
-      <c r="G89" t="n">
-        <v>37</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.9645064453469893</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>5492</v>
-      </c>
-      <c r="C90" t="n">
-        <v>68</v>
-      </c>
-      <c r="D90" t="n">
-        <v>113</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>317</v>
-      </c>
-      <c r="G90" t="n">
-        <v>37</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.9680944826370527</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>5524</v>
-      </c>
-      <c r="C91" t="n">
-        <v>55</v>
-      </c>
-      <c r="D91" t="n">
-        <v>113</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>317</v>
-      </c>
-      <c r="G91" t="n">
-        <v>37</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.9704848910751932</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5543</v>
-      </c>
-      <c r="C92" t="n">
-        <v>43</v>
-      </c>
-      <c r="D92" t="n">
-        <v>113</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>317</v>
-      </c>
-      <c r="G92" t="n">
-        <v>37</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.9726267766274785</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>5558</v>
-      </c>
-      <c r="C93" t="n">
-        <v>35</v>
-      </c>
-      <c r="D93" t="n">
-        <v>113</v>
-      </c>
-      <c r="E93" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>317</v>
-      </c>
-      <c r="G93" t="n">
-        <v>37</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.9740623904661759</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>5577</v>
-      </c>
-      <c r="C94" t="n">
-        <v>30</v>
-      </c>
-      <c r="D94" t="n">
-        <v>113</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>317</v>
-      </c>
-      <c r="G94" t="n">
-        <v>37</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>5589</v>
-      </c>
-      <c r="C95" t="n">
-        <v>26</v>
-      </c>
-      <c r="D95" t="n">
-        <v>113</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>317</v>
-      </c>
-      <c r="G95" t="n">
-        <v>37</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.9757332402234636</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>5597</v>
-      </c>
-      <c r="C96" t="n">
-        <v>17</v>
-      </c>
-      <c r="D96" t="n">
-        <v>113</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>317</v>
-      </c>
-      <c r="G96" t="n">
-        <v>37</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.9773005063733193</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>5603</v>
-      </c>
-      <c r="C97" t="n">
-        <v>11</v>
-      </c>
-      <c r="D97" t="n">
-        <v>113</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>317</v>
-      </c>
-      <c r="G97" t="n">
-        <v>37</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.9783481753099353</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>5617</v>
-      </c>
-      <c r="C98" t="n">
-        <v>11</v>
-      </c>
-      <c r="D98" t="n">
-        <v>113</v>
-      </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>317</v>
-      </c>
-      <c r="G98" t="n">
-        <v>37</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.9784009754398189</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>5619</v>
-      </c>
-      <c r="C99" t="n">
-        <v>11</v>
-      </c>
-      <c r="D99" t="n">
-        <v>113</v>
-      </c>
-      <c r="E99" t="n">
-        <v>0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>317</v>
-      </c>
-      <c r="G99" t="n">
-        <v>37</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.9784084973010622</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>5624</v>
-      </c>
-      <c r="C100" t="n">
-        <v>11</v>
-      </c>
-      <c r="D100" t="n">
-        <v>113</v>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>317</v>
-      </c>
-      <c r="G100" t="n">
-        <v>37</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.9784272790535838</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>5624</v>
-      </c>
-      <c r="C101" t="n">
-        <v>11</v>
-      </c>
-      <c r="D101" t="n">
-        <v>113</v>
-      </c>
-      <c r="E101" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>317</v>
-      </c>
-      <c r="G101" t="n">
-        <v>37</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.9784272790535838</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.8954802259887006</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>